--- a/app/config/tables/Ethiopia_members/forms/Ethiopia_Section2_other_info/Ethiopia_Section2_other_info.xlsx
+++ b/app/config/tables/Ethiopia_members/forms/Ethiopia_Section2_other_info/Ethiopia_Section2_other_info.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\Ethiopia_members\forms\Ethiopia_Section2_other_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="6" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="213">
   <si>
     <t>setting_name</t>
   </si>
@@ -31,9 +36,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -97,9 +99,6 @@
     <t>values_list</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>1. Male</t>
   </si>
   <si>
@@ -619,9 +618,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>data('age') &gt;= 0</t>
   </si>
   <si>
@@ -659,12 +655,24 @@
   </si>
   <si>
     <t>What is {{data.name}}'s main religion?</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -946,6 +954,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1273,43 +1289,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="41" customFormat="1">
+    <row r="1" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1327,227 +1344,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="30.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1"/>
     <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="17.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="26.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="1"/>
+    <col min="11" max="11" width="29.44140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="42" customFormat="1" ht="30">
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>11</v>
+      <c r="G1" s="41" t="s">
+        <v>209</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="105">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="110" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="90">
+    <row r="4" spans="1:11" ht="94.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="53" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="53" customFormat="1" ht="69.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="53" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="48" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="53" customFormat="1" ht="16" customHeight="1">
-      <c r="B5" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="53" t="s">
+    </row>
+    <row r="10" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="53" customFormat="1" ht="69" customHeight="1">
-      <c r="A6" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="53" t="s">
+      <c r="C12" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="45" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="D13" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="I6" s="54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="53" customFormat="1" ht="16" customHeight="1">
-      <c r="B7" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="48" customFormat="1">
-      <c r="B8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="48" customFormat="1" ht="64" customHeight="1">
-      <c r="D9" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="48" customFormat="1">
-      <c r="B10" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30">
-      <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="45" customFormat="1">
-      <c r="B12" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="45" customFormat="1" ht="30">
-      <c r="D13" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="45" customFormat="1">
+    </row>
+    <row r="14" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1569,439 +1588,439 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1">
+    <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="33" customFormat="1">
-      <c r="A2" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="33" customFormat="1">
-      <c r="A3" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="33" customFormat="1">
-      <c r="A4" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="33" customFormat="1">
-      <c r="A5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="33" customFormat="1">
-      <c r="A6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="33" customFormat="1">
-      <c r="A7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="33" customFormat="1">
-      <c r="A8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="33" customFormat="1">
-      <c r="A9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="33" customFormat="1">
-      <c r="A10" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="33" customFormat="1">
-      <c r="A11" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="33" customFormat="1">
-      <c r="A12" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="33" customFormat="1">
-      <c r="A13" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="33" customFormat="1">
-      <c r="A14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="33" customFormat="1">
-      <c r="A15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="33" customFormat="1">
-      <c r="A16" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="16" customFormat="1">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="16" customFormat="1">
-      <c r="A18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1">
-      <c r="A19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="45" t="s">
+    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="6" customFormat="1">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="45" t="s">
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="6" customFormat="1">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="45" t="s">
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="6" customFormat="1">
-      <c r="A22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1">
-      <c r="A23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="19" customFormat="1">
+    <row r="24" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="C24" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="19" customFormat="1">
-      <c r="A25" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="46" t="s">
+    <row r="27" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="19" customFormat="1">
-      <c r="A26" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="46" t="s">
+    <row r="28" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C28" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="19" customFormat="1">
-      <c r="A27" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="46" t="s">
+    <row r="29" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="19" customFormat="1">
-      <c r="A28" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="46" t="s">
+    <row r="30" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="19" customFormat="1">
-      <c r="A29" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="46" t="s">
+    <row r="31" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="19" customFormat="1">
-      <c r="A30" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="46" t="s">
+    <row r="32" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="19" customFormat="1">
-      <c r="A31" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="46" t="s">
+    <row r="33" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="19" customFormat="1">
-      <c r="A32" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="19" t="s">
+    <row r="34" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="19" customFormat="1">
-      <c r="A33" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="46" t="s">
+    <row r="35" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="B35" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="47" customFormat="1">
-      <c r="A34" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="48" t="s">
+    <row r="36" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C36" s="47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="47" customFormat="1">
-      <c r="A35" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="48" t="s">
+    <row r="37" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C37" s="47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="47" customFormat="1">
-      <c r="A36" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="48" t="s">
+    <row r="38" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C38" s="47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="47" customFormat="1">
-      <c r="A37" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="48" t="s">
+    <row r="39" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C39" s="47" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="47" customFormat="1">
-      <c r="A38" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="47" customFormat="1">
-      <c r="A39" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2018,16 +2037,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="49" customFormat="1">
+    <row r="1" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2035,39 +2056,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2088,623 +2109,623 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="52" customFormat="1">
+    <row r="1" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="19" t="s">
+      <c r="C28" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B29" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="22" t="s">
+      <c r="C29" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B30" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="25" t="s">
+      <c r="C30" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="28" t="s">
+      <c r="B31" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="33" t="s">
-        <v>188</v>
-      </c>
       <c r="B32" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="33"/>
       <c r="B35" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="37"/>
       <c r="B41" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="37"/>
       <c r="B42" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/Ethiopia_members/forms/Ethiopia_Section2_other_info/Ethiopia_Section2_other_info.xlsx
+++ b/app/config/tables/Ethiopia_members/forms/Ethiopia_Section2_other_info/Ethiopia_Section2_other_info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="212">
   <si>
     <t>setting_name</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>age</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>marital_status</t>
@@ -1301,32 +1298,32 @@
   <sheetData>
     <row r="1" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1366,54 +1363,54 @@
   <sheetData>
     <row r="1" spans="1:11" s="42" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>210</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="110" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
@@ -1421,16 +1418,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
@@ -1438,7 +1435,7 @@
     </row>
     <row r="4" spans="1:11" ht="94.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1447,60 +1444,60 @@
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="53" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="53" customFormat="1" ht="69.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="54" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="53" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="48" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.3">
@@ -1508,65 +1505,65 @@
         <v>8</v>
       </c>
       <c r="F9" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>72</v>
-      </c>
       <c r="J9" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="48" t="s">
         <v>198</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="D13" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>86</v>
-      </c>
       <c r="F13" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1584,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1596,431 +1593,431 @@
   <sheetData>
     <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>87</v>
-      </c>
       <c r="C34" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2037,7 +2034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2056,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2064,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2072,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2080,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2118,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>7</v>
@@ -2129,44 +2126,44 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2181,16 +2178,16 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -2199,112 +2196,112 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>8</v>
@@ -2313,7 +2310,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>8</v>
@@ -2322,7 +2319,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>8</v>
@@ -2331,18 +2328,18 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>8</v>
@@ -2351,7 +2348,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>8</v>
@@ -2360,7 +2357,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>8</v>
@@ -2368,10 +2365,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>8</v>
@@ -2379,10 +2376,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>8</v>
@@ -2390,10 +2387,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>8</v>
@@ -2401,10 +2398,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>8</v>
@@ -2412,30 +2409,30 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>8</v>
@@ -2444,56 +2441,56 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="33"/>
       <c r="B35" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>8</v>
@@ -2502,25 +2499,25 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="37"/>
       <c r="B41" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="37"/>
       <c r="B42" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>8</v>
@@ -2529,36 +2526,36 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>8</v>
@@ -2567,61 +2564,61 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>8</v>
@@ -2630,36 +2627,36 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>8</v>
@@ -2668,25 +2665,25 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>8</v>
@@ -2695,25 +2692,25 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>8</v>
@@ -2722,10 +2719,10 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
